--- a/2.xlsx
+++ b/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="11">
   <si>
     <t>В1</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>bi</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +177,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q29"/>
+  <dimension ref="B2:Q37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,6 +930,110 @@
         <v>10</v>
       </c>
     </row>
+    <row r="33" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>200</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <f>SUM(K34:N34)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>200</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" ref="O35:O36" si="4">SUM(K35:N35)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="2">
+        <v>100</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>100</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="K37" s="2">
+        <f>SUM(K34:K36)</f>
+        <v>100</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" ref="L37:N37" si="5">SUM(L34:L36)</f>
+        <v>200</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="P37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="10">
+        <f>SUMPRODUCT(K27:N29,K34:N36)</f>
+        <v>2300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -933,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
